--- a/biology/Zoologie/Gracilinanus_dryas/Gracilinanus_dryas.xlsx
+++ b/biology/Zoologie/Gracilinanus_dryas/Gracilinanus_dryas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gracilinanus dryas, l'Opossum des bois, est une espèce d'opossum de la famille des Didelphidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cette espèce est présente dans les montagnes du Venezuela et de la Colombie. Elle vit dans la forêt tropicale humide[2].
+Cette espèce est présente dans les montagnes du Venezuela et de la Colombie. Elle vit dans la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gracilinanus dryas (Thomas, 1898)[1].
-L'espèce a été initialement classée dans le genre Marmosa sous le protonyme Marmosa dryas Thomas, 1898[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Opossum des bois[1], Petit opossum-souris de bois[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gracilinanus dryas (Thomas, 1898).
+L'espèce a été initialement classée dans le genre Marmosa sous le protonyme Marmosa dryas Thomas, 1898.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Opossum des bois, Petit opossum-souris de bois,.
 </t>
         </is>
       </c>
